--- a/data/section_4.xlsx
+++ b/data/section_4.xlsx
@@ -311,19 +311,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="23.74" customWidth="1" style="6" min="1" max="1"/>
     <col width="84.48999999999999" customWidth="1" style="6" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.6" customHeight="1" s="7">
+    <row r="1" ht="30" customHeight="1" s="7">
       <c r="A1" s="8" t="inlineStr">
         <is>
           <t>-</t>
@@ -334,17 +334,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" t="n">
         <v>603789543</v>
       </c>
-      <c r="D1" s="6" t="n">
-        <v>6016855180</v>
-      </c>
-      <c r="E1" t="n">
-        <v>6959852164</v>
-      </c>
-    </row>
-    <row r="2" ht="30.6" customHeight="1" s="7">
+    </row>
+    <row r="2" ht="30" customHeight="1" s="7">
       <c r="A2" s="8" t="inlineStr">
         <is>
           <t>-</t>
@@ -355,23 +349,13 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>gdfdgf gfgdf gfg</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>dgdsg gs dgds</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>fsd fds fdsf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="64.95" customHeight="1" s="7">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>errefd fdsf dfds</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="64.5" customHeight="1" s="7">
       <c r="A3" s="9" t="n"/>
       <c r="B3" s="10" t="inlineStr">
         <is>
@@ -379,7 +363,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="64.95" customHeight="1" s="7">
+    <row r="4" ht="64.5" customHeight="1" s="7">
       <c r="A4" s="11" t="inlineStr">
         <is>
           <t>Необходимые умения</t>
@@ -391,7 +375,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="64.95" customHeight="1" s="7">
+    <row r="5" ht="64.5" customHeight="1" s="7">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="10" t="inlineStr">
         <is>
@@ -399,7 +383,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="64.95" customHeight="1" s="7">
+    <row r="6" ht="64.5" customHeight="1" s="7">
       <c r="A6" s="11" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
@@ -407,7 +391,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="64.95" customHeight="1" s="7">
+    <row r="7" ht="64.5" customHeight="1" s="7">
       <c r="A7" s="11" t="n"/>
       <c r="B7" s="10" t="inlineStr">
         <is>
@@ -415,7 +399,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="64.95" customHeight="1" s="7">
+    <row r="8" ht="64.5" customHeight="1" s="7">
       <c r="A8" s="11" t="n"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
@@ -423,7 +407,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="64.95" customHeight="1" s="7">
+    <row r="9" ht="64.5" customHeight="1" s="7">
       <c r="A9" s="11" t="n"/>
       <c r="B9" s="10" t="inlineStr">
         <is>
@@ -431,7 +415,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="64.95" customHeight="1" s="7">
+    <row r="10" ht="64.5" customHeight="1" s="7">
       <c r="A10" s="11" t="n"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
@@ -439,7 +423,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="64.95" customHeight="1" s="7">
+    <row r="11" ht="64.5" customHeight="1" s="7">
       <c r="A11" s="11" t="inlineStr">
         <is>
           <t>Необходимые знания</t>
@@ -451,7 +435,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="64.95" customHeight="1" s="7">
+    <row r="12" ht="64.5" customHeight="1" s="7">
       <c r="A12" s="11" t="n"/>
       <c r="B12" s="10" t="inlineStr">
         <is>
@@ -459,7 +443,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="64.95" customHeight="1" s="7">
+    <row r="13" ht="64.5" customHeight="1" s="7">
       <c r="A13" s="11" t="n"/>
       <c r="B13" s="10" t="inlineStr">
         <is>
@@ -467,7 +451,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="64.95" customHeight="1" s="7">
+    <row r="14" ht="64.5" customHeight="1" s="7">
       <c r="A14" s="11" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
@@ -475,7 +459,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="64.95" customHeight="1" s="7">
+    <row r="15" ht="64.5" customHeight="1" s="7">
       <c r="A15" s="11" t="n"/>
       <c r="B15" s="10" t="inlineStr">
         <is>
@@ -483,7 +467,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="64.95" customHeight="1" s="7">
+    <row r="16" ht="64.5" customHeight="1" s="7">
       <c r="A16" s="11" t="n"/>
       <c r="B16" s="10" t="inlineStr">
         <is>
@@ -491,7 +475,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="64.95" customHeight="1" s="7">
+    <row r="17" ht="64.5" customHeight="1" s="7">
       <c r="A17" s="11" t="n"/>
       <c r="B17" s="10" t="inlineStr">
         <is>
@@ -499,7 +483,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="64.95" customHeight="1" s="7">
+    <row r="18" ht="64.5" customHeight="1" s="7">
       <c r="A18" s="11" t="n"/>
       <c r="B18" s="10" t="inlineStr">
         <is>
@@ -507,7 +491,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="64.95" customHeight="1" s="7">
+    <row r="19" ht="64.5" customHeight="1" s="7">
       <c r="A19" s="11" t="n"/>
       <c r="B19" s="10" t="inlineStr">
         <is>
@@ -515,7 +499,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="64.95" customHeight="1" s="7">
+    <row r="20" ht="64.5" customHeight="1" s="7">
       <c r="A20" s="11" t="n"/>
       <c r="B20" s="10" t="inlineStr">
         <is>
@@ -523,7 +507,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="64.95" customHeight="1" s="7">
+    <row r="21" ht="64.5" customHeight="1" s="7">
       <c r="A21" s="9" t="n"/>
       <c r="B21" s="10" t="inlineStr">
         <is>
@@ -531,7 +515,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="64.95" customHeight="1" s="7">
+    <row r="22" ht="64.5" customHeight="1" s="7">
       <c r="A22" s="11" t="inlineStr">
         <is>
           <t>Необходимые умения</t>
@@ -543,7 +527,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="64.95" customHeight="1" s="7">
+    <row r="23" ht="64.5" customHeight="1" s="7">
       <c r="A23" s="11" t="n"/>
       <c r="B23" s="10" t="inlineStr">
         <is>
@@ -551,7 +535,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="64.95" customHeight="1" s="7">
+    <row r="24" ht="64.5" customHeight="1" s="7">
       <c r="A24" s="11" t="n"/>
       <c r="B24" s="10" t="inlineStr">
         <is>
@@ -559,7 +543,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="64.95" customHeight="1" s="7">
+    <row r="25" ht="64.5" customHeight="1" s="7">
       <c r="A25" s="11" t="n"/>
       <c r="B25" s="10" t="inlineStr">
         <is>
@@ -567,7 +551,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="64.95" customHeight="1" s="7">
+    <row r="26" ht="64.5" customHeight="1" s="7">
       <c r="A26" s="11" t="n"/>
       <c r="B26" s="10" t="inlineStr">
         <is>
@@ -575,7 +559,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="64.95" customHeight="1" s="7">
+    <row r="27" ht="64.5" customHeight="1" s="7">
       <c r="A27" s="11" t="n"/>
       <c r="B27" s="10" t="inlineStr">
         <is>
@@ -583,7 +567,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="64.95" customHeight="1" s="7">
+    <row r="28" ht="64.5" customHeight="1" s="7">
       <c r="A28" s="11" t="n"/>
       <c r="B28" s="10" t="inlineStr">
         <is>
@@ -591,7 +575,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="64.95" customHeight="1" s="7">
+    <row r="29" ht="64.5" customHeight="1" s="7">
       <c r="A29" s="11" t="n"/>
       <c r="B29" s="10" t="inlineStr">
         <is>
@@ -599,7 +583,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="64.95" customHeight="1" s="7">
+    <row r="30" ht="64.5" customHeight="1" s="7">
       <c r="A30" s="11" t="n"/>
       <c r="B30" s="10" t="inlineStr">
         <is>
@@ -607,7 +591,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="64.95" customHeight="1" s="7">
+    <row r="31" ht="64.5" customHeight="1" s="7">
       <c r="A31" s="11" t="inlineStr">
         <is>
           <t>Необходимые знания</t>
@@ -619,7 +603,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="64.95" customHeight="1" s="7">
+    <row r="32" ht="64.5" customHeight="1" s="7">
       <c r="A32" s="11" t="n"/>
       <c r="B32" s="10" t="inlineStr">
         <is>
@@ -627,7 +611,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="64.95" customHeight="1" s="7">
+    <row r="33" ht="64.5" customHeight="1" s="7">
       <c r="A33" s="11" t="n"/>
       <c r="B33" s="10" t="inlineStr">
         <is>
@@ -635,7 +619,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="64.95" customHeight="1" s="7">
+    <row r="34" ht="64.5" customHeight="1" s="7">
       <c r="A34" s="11" t="n"/>
       <c r="B34" s="10" t="inlineStr">
         <is>
@@ -643,7 +627,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="64.95" customHeight="1" s="7">
+    <row r="35" ht="64.5" customHeight="1" s="7">
       <c r="A35" s="11" t="n"/>
       <c r="B35" s="10" t="inlineStr">
         <is>
@@ -651,7 +635,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="64.95" customHeight="1" s="7">
+    <row r="36" ht="64.5" customHeight="1" s="7">
       <c r="A36" s="11" t="n"/>
       <c r="B36" s="10" t="inlineStr">
         <is>
@@ -659,7 +643,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="64.95" customHeight="1" s="7">
+    <row r="37" ht="64.5" customHeight="1" s="7">
       <c r="A37" s="11" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
@@ -667,7 +651,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="64.95" customHeight="1" s="7">
+    <row r="38" ht="64.5" customHeight="1" s="7">
       <c r="A38" s="11" t="n"/>
       <c r="B38" s="10" t="inlineStr">
         <is>
@@ -675,7 +659,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="64.95" customHeight="1" s="7">
+    <row r="39" ht="64.5" customHeight="1" s="7">
       <c r="A39" s="11" t="n"/>
       <c r="B39" s="10" t="inlineStr">
         <is>
@@ -683,7 +667,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="64.95" customHeight="1" s="7">
+    <row r="40" ht="64.5" customHeight="1" s="7">
       <c r="A40" s="11" t="n"/>
       <c r="B40" s="10" t="inlineStr">
         <is>
@@ -691,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="64.95" customHeight="1" s="7">
+    <row r="41" ht="64.5" customHeight="1" s="7">
       <c r="A41" s="9" t="n"/>
       <c r="B41" s="10" t="inlineStr">
         <is>
@@ -699,7 +683,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="64.95" customHeight="1" s="7">
+    <row r="42" ht="64.5" customHeight="1" s="7">
       <c r="A42" s="11" t="inlineStr">
         <is>
           <t>Необходимые умения</t>
@@ -711,7 +695,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="64.95" customHeight="1" s="7">
+    <row r="43" ht="64.5" customHeight="1" s="7">
       <c r="A43" s="11" t="n"/>
       <c r="B43" s="10" t="inlineStr">
         <is>
@@ -719,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="64.95" customHeight="1" s="7">
+    <row r="44" ht="64.5" customHeight="1" s="7">
       <c r="A44" s="11" t="n"/>
       <c r="B44" s="10" t="inlineStr">
         <is>
@@ -727,7 +711,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="64.95" customHeight="1" s="7">
+    <row r="45" ht="64.5" customHeight="1" s="7">
       <c r="A45" s="11" t="n"/>
       <c r="B45" s="10" t="inlineStr">
         <is>
@@ -735,7 +719,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="64.95" customHeight="1" s="7">
+    <row r="46" ht="64.5" customHeight="1" s="7">
       <c r="A46" s="11" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
@@ -743,7 +727,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="64.95" customHeight="1" s="7">
+    <row r="47" ht="64.5" customHeight="1" s="7">
       <c r="A47" s="11" t="n"/>
       <c r="B47" s="10" t="inlineStr">
         <is>
@@ -751,7 +735,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="64.95" customHeight="1" s="7">
+    <row r="48" ht="64.5" customHeight="1" s="7">
       <c r="A48" s="11" t="n"/>
       <c r="B48" s="10" t="inlineStr">
         <is>
@@ -759,7 +743,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="64.95" customHeight="1" s="7">
+    <row r="49" ht="64.5" customHeight="1" s="7">
       <c r="A49" s="11" t="n"/>
       <c r="B49" s="10" t="inlineStr">
         <is>
@@ -767,7 +751,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="64.95" customHeight="1" s="7">
+    <row r="50" ht="64.5" customHeight="1" s="7">
       <c r="A50" s="11" t="n"/>
       <c r="B50" s="10" t="inlineStr">
         <is>
@@ -775,7 +759,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="64.95" customHeight="1" s="7">
+    <row r="51" ht="64.5" customHeight="1" s="7">
       <c r="A51" s="11" t="inlineStr">
         <is>
           <t>Необходимые знания</t>
@@ -787,7 +771,7 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="64.95" customHeight="1" s="7">
+    <row r="52" ht="64.5" customHeight="1" s="7">
       <c r="A52" s="11" t="n"/>
       <c r="B52" s="10" t="inlineStr">
         <is>
@@ -795,7 +779,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="64.95" customHeight="1" s="7">
+    <row r="53" ht="64.5" customHeight="1" s="7">
       <c r="A53" s="11" t="n"/>
       <c r="B53" s="10" t="inlineStr">
         <is>
@@ -803,7 +787,7 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="64.95" customHeight="1" s="7">
+    <row r="54" ht="64.5" customHeight="1" s="7">
       <c r="A54" s="11" t="n"/>
       <c r="B54" s="10" t="inlineStr">
         <is>
@@ -811,7 +795,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="64.95" customHeight="1" s="7">
+    <row r="55" ht="64.5" customHeight="1" s="7">
       <c r="A55" s="11" t="n"/>
       <c r="B55" s="10" t="inlineStr">
         <is>
@@ -819,7 +803,7 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="64.95" customHeight="1" s="7">
+    <row r="56" ht="64.5" customHeight="1" s="7">
       <c r="A56" s="11" t="n"/>
       <c r="B56" s="10" t="inlineStr">
         <is>
@@ -827,7 +811,7 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="64.95" customHeight="1" s="7">
+    <row r="57" ht="64.5" customHeight="1" s="7">
       <c r="A57" s="11" t="n"/>
       <c r="B57" s="10" t="inlineStr">
         <is>
@@ -835,7 +819,7 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="64.95" customHeight="1" s="7">
+    <row r="58" ht="64.5" customHeight="1" s="7">
       <c r="A58" s="11" t="n"/>
       <c r="B58" s="10" t="inlineStr">
         <is>
@@ -843,7 +827,7 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="64.95" customHeight="1" s="7">
+    <row r="59" ht="64.5" customHeight="1" s="7">
       <c r="A59" s="11" t="n"/>
       <c r="B59" s="10" t="inlineStr">
         <is>
@@ -851,7 +835,7 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="64.95" customHeight="1" s="7">
+    <row r="60" ht="64.5" customHeight="1" s="7">
       <c r="A60" s="11" t="n"/>
       <c r="B60" s="10" t="inlineStr">
         <is>
@@ -859,7 +843,7 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="64.95" customHeight="1" s="7">
+    <row r="61" ht="64.5" customHeight="1" s="7">
       <c r="A61" s="11" t="n"/>
       <c r="B61" s="10" t="inlineStr">
         <is>
@@ -867,7 +851,7 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="64.95" customHeight="1" s="7">
+    <row r="62" ht="64.5" customHeight="1" s="7">
       <c r="A62" s="9" t="n"/>
       <c r="B62" s="10" t="inlineStr">
         <is>
@@ -875,7 +859,7 @@
         </is>
       </c>
     </row>
-    <row r="63" ht="64.95" customHeight="1" s="7">
+    <row r="63" ht="64.5" customHeight="1" s="7">
       <c r="A63" s="11" t="inlineStr">
         <is>
           <t>Необходимые умения</t>
@@ -887,7 +871,7 @@
         </is>
       </c>
     </row>
-    <row r="64" ht="64.95" customHeight="1" s="7">
+    <row r="64" ht="64.5" customHeight="1" s="7">
       <c r="A64" s="11" t="n"/>
       <c r="B64" s="10" t="inlineStr">
         <is>
@@ -895,7 +879,7 @@
         </is>
       </c>
     </row>
-    <row r="65" ht="64.95" customHeight="1" s="7">
+    <row r="65" ht="64.5" customHeight="1" s="7">
       <c r="A65" s="11" t="n"/>
       <c r="B65" s="10" t="inlineStr">
         <is>
@@ -903,7 +887,7 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="64.95" customHeight="1" s="7">
+    <row r="66" ht="64.5" customHeight="1" s="7">
       <c r="A66" s="11" t="n"/>
       <c r="B66" s="10" t="inlineStr">
         <is>
@@ -911,7 +895,7 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="64.95" customHeight="1" s="7">
+    <row r="67" ht="64.5" customHeight="1" s="7">
       <c r="A67" s="11" t="n"/>
       <c r="B67" s="10" t="inlineStr">
         <is>
@@ -919,7 +903,7 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="64.95" customHeight="1" s="7">
+    <row r="68" ht="64.5" customHeight="1" s="7">
       <c r="A68" s="11" t="n"/>
       <c r="B68" s="10" t="inlineStr">
         <is>
@@ -927,7 +911,7 @@
         </is>
       </c>
     </row>
-    <row r="69" ht="64.95" customHeight="1" s="7">
+    <row r="69" ht="64.5" customHeight="1" s="7">
       <c r="A69" s="11" t="n"/>
       <c r="B69" s="10" t="inlineStr">
         <is>
@@ -935,7 +919,7 @@
         </is>
       </c>
     </row>
-    <row r="70" ht="64.95" customHeight="1" s="7">
+    <row r="70" ht="64.5" customHeight="1" s="7">
       <c r="A70" s="11" t="n"/>
       <c r="B70" s="10" t="inlineStr">
         <is>
@@ -943,7 +927,7 @@
         </is>
       </c>
     </row>
-    <row r="71" ht="64.95" customHeight="1" s="7">
+    <row r="71" ht="64.5" customHeight="1" s="7">
       <c r="A71" s="11" t="n"/>
       <c r="B71" s="10" t="inlineStr">
         <is>
@@ -951,7 +935,7 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="64.95" customHeight="1" s="7">
+    <row r="72" ht="64.5" customHeight="1" s="7">
       <c r="A72" s="11" t="inlineStr">
         <is>
           <t>Необходимые знания</t>
@@ -963,7 +947,7 @@
         </is>
       </c>
     </row>
-    <row r="73" ht="64.95" customHeight="1" s="7">
+    <row r="73" ht="64.5" customHeight="1" s="7">
       <c r="A73" s="11" t="n"/>
       <c r="B73" s="10" t="inlineStr">
         <is>
@@ -971,7 +955,7 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="64.95" customHeight="1" s="7">
+    <row r="74" ht="64.5" customHeight="1" s="7">
       <c r="A74" s="11" t="n"/>
       <c r="B74" s="10" t="inlineStr">
         <is>
@@ -979,7 +963,7 @@
         </is>
       </c>
     </row>
-    <row r="75" ht="64.95" customHeight="1" s="7">
+    <row r="75" ht="64.5" customHeight="1" s="7">
       <c r="A75" s="11" t="n"/>
       <c r="B75" s="10" t="inlineStr">
         <is>
@@ -987,7 +971,7 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="64.95" customHeight="1" s="7">
+    <row r="76" ht="64.5" customHeight="1" s="7">
       <c r="A76" s="11" t="n"/>
       <c r="B76" s="10" t="inlineStr">
         <is>
@@ -995,7 +979,7 @@
         </is>
       </c>
     </row>
-    <row r="77" ht="64.95" customHeight="1" s="7">
+    <row r="77" ht="64.5" customHeight="1" s="7">
       <c r="A77" s="11" t="n"/>
       <c r="B77" s="10" t="inlineStr">
         <is>
@@ -1003,7 +987,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="64.95" customHeight="1" s="7">
+    <row r="78" ht="64.5" customHeight="1" s="7">
       <c r="A78" s="11" t="n"/>
       <c r="B78" s="10" t="inlineStr">
         <is>
@@ -1011,7 +995,7 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="64.95" customHeight="1" s="7">
+    <row r="79" ht="64.5" customHeight="1" s="7">
       <c r="A79" s="11" t="n"/>
       <c r="B79" s="10" t="inlineStr">
         <is>
@@ -1019,7 +1003,7 @@
         </is>
       </c>
     </row>
-    <row r="80" ht="64.95" customHeight="1" s="7">
+    <row r="80" ht="64.5" customHeight="1" s="7">
       <c r="A80" s="11" t="n"/>
       <c r="B80" s="10" t="inlineStr">
         <is>
@@ -1027,7 +1011,7 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="64.95" customHeight="1" s="7">
+    <row r="81" ht="64.5" customHeight="1" s="7">
       <c r="A81" s="11" t="n"/>
       <c r="B81" s="10" t="inlineStr">
         <is>
@@ -1035,7 +1019,7 @@
         </is>
       </c>
     </row>
-    <row r="82" ht="64.95" customHeight="1" s="7">
+    <row r="82" ht="64.5" customHeight="1" s="7">
       <c r="A82" s="11" t="n"/>
       <c r="B82" s="10" t="inlineStr">
         <is>
@@ -1043,7 +1027,7 @@
         </is>
       </c>
     </row>
-    <row r="83" ht="64.95" customHeight="1" s="7">
+    <row r="83" ht="64.5" customHeight="1" s="7">
       <c r="A83" s="9" t="n"/>
       <c r="B83" s="10" t="inlineStr">
         <is>
@@ -1051,7 +1035,7 @@
         </is>
       </c>
     </row>
-    <row r="84" ht="64.95" customHeight="1" s="7">
+    <row r="84" ht="64.5" customHeight="1" s="7">
       <c r="A84" s="11" t="inlineStr">
         <is>
           <t>Необходимые умения</t>
@@ -1063,7 +1047,7 @@
         </is>
       </c>
     </row>
-    <row r="85" ht="64.95" customHeight="1" s="7">
+    <row r="85" ht="64.5" customHeight="1" s="7">
       <c r="A85" s="11" t="n"/>
       <c r="B85" s="10" t="inlineStr">
         <is>
@@ -1071,7 +1055,7 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="64.95" customHeight="1" s="7">
+    <row r="86" ht="64.5" customHeight="1" s="7">
       <c r="A86" s="11" t="n"/>
       <c r="B86" s="10" t="inlineStr">
         <is>
@@ -1079,7 +1063,7 @@
         </is>
       </c>
     </row>
-    <row r="87" ht="64.95" customHeight="1" s="7">
+    <row r="87" ht="64.5" customHeight="1" s="7">
       <c r="A87" s="11" t="n"/>
       <c r="B87" s="10" t="inlineStr">
         <is>
@@ -1087,7 +1071,7 @@
         </is>
       </c>
     </row>
-    <row r="88" ht="64.95" customHeight="1" s="7">
+    <row r="88" ht="64.5" customHeight="1" s="7">
       <c r="A88" s="11" t="n"/>
       <c r="B88" s="10" t="inlineStr">
         <is>
@@ -1095,7 +1079,7 @@
         </is>
       </c>
     </row>
-    <row r="89" ht="64.95" customHeight="1" s="7">
+    <row r="89" ht="64.5" customHeight="1" s="7">
       <c r="A89" s="11" t="n"/>
       <c r="B89" s="10" t="inlineStr">
         <is>
@@ -1103,7 +1087,7 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="64.95" customHeight="1" s="7">
+    <row r="90" ht="64.5" customHeight="1" s="7">
       <c r="A90" s="11" t="n"/>
       <c r="B90" s="10" t="inlineStr">
         <is>
@@ -1111,7 +1095,7 @@
         </is>
       </c>
     </row>
-    <row r="91" ht="64.95" customHeight="1" s="7">
+    <row r="91" ht="64.5" customHeight="1" s="7">
       <c r="A91" s="11" t="n"/>
       <c r="B91" s="10" t="inlineStr">
         <is>
@@ -1119,7 +1103,7 @@
         </is>
       </c>
     </row>
-    <row r="92" ht="64.95" customHeight="1" s="7">
+    <row r="92" ht="64.5" customHeight="1" s="7">
       <c r="A92" s="11" t="n"/>
       <c r="B92" s="10" t="inlineStr">
         <is>
@@ -1127,7 +1111,7 @@
         </is>
       </c>
     </row>
-    <row r="93" ht="64.95" customHeight="1" s="7">
+    <row r="93" ht="64.5" customHeight="1" s="7">
       <c r="A93" s="11" t="inlineStr">
         <is>
           <t>Необходимые знания</t>
@@ -1139,7 +1123,7 @@
         </is>
       </c>
     </row>
-    <row r="94" ht="64.95" customHeight="1" s="7">
+    <row r="94" ht="64.5" customHeight="1" s="7">
       <c r="A94" s="11" t="n"/>
       <c r="B94" s="10" t="inlineStr">
         <is>
@@ -1147,7 +1131,7 @@
         </is>
       </c>
     </row>
-    <row r="95" ht="64.95" customHeight="1" s="7">
+    <row r="95" ht="64.5" customHeight="1" s="7">
       <c r="A95" s="11" t="n"/>
       <c r="B95" s="10" t="inlineStr">
         <is>
@@ -1155,7 +1139,7 @@
         </is>
       </c>
     </row>
-    <row r="96" ht="64.95" customHeight="1" s="7">
+    <row r="96" ht="64.5" customHeight="1" s="7">
       <c r="A96" s="11" t="n"/>
       <c r="B96" s="10" t="inlineStr">
         <is>
@@ -1163,7 +1147,7 @@
         </is>
       </c>
     </row>
-    <row r="97" ht="64.95" customHeight="1" s="7">
+    <row r="97" ht="64.5" customHeight="1" s="7">
       <c r="A97" s="11" t="n"/>
       <c r="B97" s="10" t="inlineStr">
         <is>
@@ -1171,7 +1155,7 @@
         </is>
       </c>
     </row>
-    <row r="98" ht="64.95" customHeight="1" s="7">
+    <row r="98" ht="64.5" customHeight="1" s="7">
       <c r="A98" s="11" t="n"/>
       <c r="B98" s="10" t="inlineStr">
         <is>
@@ -1179,7 +1163,7 @@
         </is>
       </c>
     </row>
-    <row r="99" ht="64.95" customHeight="1" s="7">
+    <row r="99" ht="64.5" customHeight="1" s="7">
       <c r="A99" s="11" t="n"/>
       <c r="B99" s="10" t="inlineStr">
         <is>
@@ -1187,7 +1171,7 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="64.95" customHeight="1" s="7">
+    <row r="100" ht="64.5" customHeight="1" s="7">
       <c r="A100" s="11" t="n"/>
       <c r="B100" s="10" t="inlineStr">
         <is>
@@ -1195,7 +1179,7 @@
         </is>
       </c>
     </row>
-    <row r="101" ht="64.95" customHeight="1" s="7">
+    <row r="101" ht="64.5" customHeight="1" s="7">
       <c r="A101" s="11" t="n"/>
       <c r="B101" s="10" t="inlineStr">
         <is>
@@ -1203,7 +1187,7 @@
         </is>
       </c>
     </row>
-    <row r="102" ht="64.95" customHeight="1" s="7">
+    <row r="102" ht="64.5" customHeight="1" s="7">
       <c r="A102" s="11" t="n"/>
       <c r="B102" s="10" t="inlineStr">
         <is>
@@ -1211,7 +1195,7 @@
         </is>
       </c>
     </row>
-    <row r="103" ht="64.95" customHeight="1" s="7">
+    <row r="103" ht="64.5" customHeight="1" s="7">
       <c r="A103" s="11" t="n"/>
       <c r="B103" s="10" t="inlineStr">
         <is>
@@ -1219,7 +1203,7 @@
         </is>
       </c>
     </row>
-    <row r="104" ht="64.95" customHeight="1" s="7">
+    <row r="104" ht="64.5" customHeight="1" s="7">
       <c r="A104" s="9" t="n"/>
       <c r="B104" s="10" t="inlineStr">
         <is>
@@ -1227,7 +1211,7 @@
         </is>
       </c>
     </row>
-    <row r="105" ht="64.95" customHeight="1" s="7">
+    <row r="105" ht="64.5" customHeight="1" s="7">
       <c r="A105" s="11" t="inlineStr">
         <is>
           <t>Необходимые умения</t>
@@ -1238,117 +1222,72 @@
           <t>Читать рабочие чертежи, электрические схемы, спецификации монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C105" s="6" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="106" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="106" ht="64.5" customHeight="1" s="7">
       <c r="A106" s="11" t="n"/>
       <c r="B106" s="10" t="inlineStr">
         <is>
           <t>Определять пригодность измерительной техники, приборов и инструментов для выполнения пусконаладочных работ всего комплекса системы локальной вычислительной сети</t>
         </is>
       </c>
-      <c r="C106" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="107" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="107" ht="64.5" customHeight="1" s="7">
       <c r="A107" s="11" t="n"/>
       <c r="B107" s="10" t="inlineStr">
         <is>
           <t>Пользоваться измерительной техникой и приборами для проведения необходимых замеров параметров всего объектового комплекса системы локальной вычислительной сети, подключенного к внешним линиям и каналам связи, согласно проектной документации</t>
         </is>
       </c>
-      <c r="C107" s="6" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="108" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="108" ht="64.5" customHeight="1" s="7">
       <c r="A108" s="11" t="n"/>
       <c r="B108" s="10" t="inlineStr">
         <is>
           <t>Пользоваться ручным и механизированным инструментом для устранения выявленных дефектов и недостатков при проведении пусконаладочных работ всего объектового комплекса системы локальной вычислительной сети, подключенного к внешним линиям и каналам связи, согласно проектной документации</t>
         </is>
       </c>
-      <c r="C108" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="109" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="109" ht="64.5" customHeight="1" s="7">
       <c r="A109" s="11" t="n"/>
       <c r="B109" s="10" t="inlineStr">
         <is>
           <t>Применять прикладные компьютерные программы для заполнения полного комплекта рабочей и исполнительской документации на весь комплекс системы локальной вычислительной сети</t>
         </is>
       </c>
-      <c r="C109" s="6" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="110" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="110" ht="64.5" customHeight="1" s="7">
       <c r="A110" s="11" t="n"/>
       <c r="B110" s="10" t="inlineStr">
         <is>
           <t>Применять требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
-      <c r="C110" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="111" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="111" ht="64.5" customHeight="1" s="7">
       <c r="A111" s="11" t="n"/>
       <c r="B111" s="10" t="inlineStr">
         <is>
           <t>Применять средства индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="C111" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="112" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="112" ht="64.5" customHeight="1" s="7">
       <c r="A112" s="11" t="n"/>
       <c r="B112" s="10" t="inlineStr">
         <is>
           <t>Пользоваться стандартными компьютерными офисными приложениями, браузерами, электронными словарями и профессиональными ресурсами информационно-телекоммуникационной сети "Интернет"</t>
         </is>
       </c>
-      <c r="C112" s="6" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="113" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="113" ht="64.5" customHeight="1" s="7">
       <c r="A113" s="11" t="n"/>
       <c r="B113" s="10" t="inlineStr">
         <is>
           <t>Соблюдать требования охраны труда, правила технической эксплуатации электроустановок потребителей, пожарной и экологической безопасности при выполнении работ</t>
         </is>
       </c>
-      <c r="C113" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="114" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="114" ht="64.5" customHeight="1" s="7">
       <c r="A114" s="11" t="inlineStr">
         <is>
           <t>Необходимые знания</t>
@@ -1359,139 +1298,84 @@
           <t>Условные изображения на чертежах и схемах монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C114" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="115" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="115" ht="64.5" customHeight="1" s="7">
       <c r="A115" s="11" t="n"/>
       <c r="B115" s="10" t="inlineStr">
         <is>
           <t>Правила пользования ручным и механизированным инструментом для устранения выявленных недостатков при подключении всего объектового комплекса системы локальной вычислительной сети, подключенного к внешним линиям и каналам связи, согласно проектной документации</t>
         </is>
       </c>
-      <c r="C115" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="116" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="116" ht="64.5" customHeight="1" s="7">
       <c r="A116" s="11" t="n"/>
       <c r="B116" s="10" t="inlineStr">
         <is>
           <t>Правила пользования измерительной техникой и приборами для проведения необходимых замеров параметров при подключении всего объектового комплекса системы локальной вычислительной сети, подключенного к внешним линиям и каналам связи, согласно проектной документации</t>
         </is>
       </c>
-      <c r="C116" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="117" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="117" ht="64.5" customHeight="1" s="7">
       <c r="A117" s="11" t="n"/>
       <c r="B117" s="10" t="inlineStr">
         <is>
           <t>Правила монтажа слаботочных линий связи, коммутирующих узлов и слаботочного электрооборудования</t>
         </is>
       </c>
-      <c r="C117" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="118" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="118" ht="64.5" customHeight="1" s="7">
       <c r="A118" s="11" t="n"/>
       <c r="B118" s="10" t="inlineStr">
         <is>
           <t>Виды дефектов и неисправностей при монтаже слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
-      <c r="C118" s="6" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="119" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="119" ht="64.5" customHeight="1" s="7">
       <c r="A119" s="11" t="n"/>
       <c r="B119" s="10" t="inlineStr">
         <is>
           <t>Требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
-      <c r="C119" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="120" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="120" ht="64.5" customHeight="1" s="7">
       <c r="A120" s="11" t="n"/>
       <c r="B120" s="10" t="inlineStr">
         <is>
           <t>Правила по охране труда и правила технической эксплуатации электроустановок потребителей</t>
         </is>
       </c>
-      <c r="C120" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="121" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="121" ht="64.5" customHeight="1" s="7">
       <c r="A121" s="11" t="n"/>
       <c r="B121" s="10" t="inlineStr">
         <is>
           <t>Требования охраны труда, пожарной и экологической безопасности при выполнении работ по монтажу слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C121" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="122" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="122" ht="64.5" customHeight="1" s="7">
       <c r="A122" s="11" t="n"/>
       <c r="B122" s="10" t="inlineStr">
         <is>
           <t>Требования, предъявляемые к рациональной организации труда на рабочем месте</t>
         </is>
       </c>
-      <c r="C122" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="123" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="123" ht="64.5" customHeight="1" s="7">
       <c r="A123" s="11" t="n"/>
       <c r="B123" s="10" t="inlineStr">
         <is>
           <t>Правила применения средств индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="C123" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="124" ht="64.95" customHeight="1" s="7">
+    </row>
+    <row r="124" ht="64.5" customHeight="1" s="7">
       <c r="A124" s="11" t="n"/>
       <c r="B124" s="10" t="inlineStr">
         <is>
           <t>Стандартные компьютерные офисные приложения, браузеры, электронные словари и профессиональные ресурсы информационно-телекоммуникационной сети "Интернет"</t>
-        </is>
-      </c>
-      <c r="C124" s="6" t="inlineStr">
-        <is>
-          <t>Нет</t>
         </is>
       </c>
     </row>
